--- a/Analysis/QuixBugs_Gemini-APR/APR_one_shot_Gemini_1.5_Pro_Java.xlsx
+++ b/Analysis/QuixBugs_Gemini-APR/APR_one_shot_Gemini_1.5_Pro_Java.xlsx
@@ -8,14 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mraee\Desktop\Investigation\Bug Busters\Analysis\QuixBugs_Gemini-APR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC6C85FC-6F99-4444-B251-3640DEAFDE8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E982618A-D948-4EC5-ABC7-056154704F42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9480" yWindow="-21720" windowWidth="38640" windowHeight="21120" xr2:uid="{2E414A18-CD90-4842-A94C-FBBA59D4B058}"/>
   </bookViews>
   <sheets>
     <sheet name="APR_one_shot_Gemini_1.5_Pro_Jav" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -7276,14 +7289,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D984448-1C1F-478B-867C-14C3D2C7E4AA}">
   <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="I71" sqref="I71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="9" width="79.90625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="18.54296875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="79.90625" style="2" customWidth="1"/>
+    <col min="2" max="8" width="23.04296875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="19.76953125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="23.04296875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.75">
@@ -7463,7 +7478,7 @@
         <v>242</v>
       </c>
       <c r="J6" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
@@ -7742,7 +7757,7 @@
         <v>251</v>
       </c>
       <c r="J15" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
@@ -7977,7 +7992,7 @@
         <v>259</v>
       </c>
       <c r="J23" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
@@ -8097,7 +8112,7 @@
         <v>262</v>
       </c>
       <c r="J27" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
@@ -8361,7 +8376,7 @@
         <v>271</v>
       </c>
       <c r="J36" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
@@ -8422,7 +8437,7 @@
         <v>273</v>
       </c>
       <c r="J38" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
@@ -8591,7 +8606,7 @@
       </c>
       <c r="J44" s="2">
         <f>COUNTIF(J2:J43,TRUE)</f>
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.75">
@@ -8611,7 +8626,7 @@
       </c>
       <c r="J45" s="2">
         <f>COUNTIF(J2:J43,FALSE)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.75">
@@ -8631,7 +8646,7 @@
       </c>
       <c r="J46" s="2">
         <f>J44/(J44+J45)*100</f>
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
